--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1463FF3E-7C39-804C-9B81-5E068FCDE1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB367F43-4442-BD4B-8E8F-6BE551A35F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
   <si>
     <t>date</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>plate16</t>
+  </si>
+  <si>
+    <t>plate25</t>
+  </si>
+  <si>
+    <t>plate27</t>
+  </si>
+  <si>
+    <t>plate30</t>
+  </si>
+  <si>
+    <t>plate31</t>
   </si>
 </sst>
 </file>
@@ -503,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,6 +1257,62 @@
         <v>22.2</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20250702</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20250702</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20250702</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20250702</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>10.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB367F43-4442-BD4B-8E8F-6BE551A35F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546BD29D-3768-0946-9EAF-693DA96B83A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -144,6 +144,42 @@
   </si>
   <si>
     <t>plate31</t>
+  </si>
+  <si>
+    <t>plate33</t>
+  </si>
+  <si>
+    <t>plate35</t>
+  </si>
+  <si>
+    <t>plate37</t>
+  </si>
+  <si>
+    <t>plate40</t>
+  </si>
+  <si>
+    <t>plate42</t>
+  </si>
+  <si>
+    <t>plate41</t>
+  </si>
+  <si>
+    <t>plate43</t>
+  </si>
+  <si>
+    <t>plate44</t>
+  </si>
+  <si>
+    <t>plate45</t>
+  </si>
+  <si>
+    <t>plate47</t>
+  </si>
+  <si>
+    <t>plate29</t>
+  </si>
+  <si>
+    <t>plate39</t>
   </si>
 </sst>
 </file>
@@ -515,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,6 +1349,258 @@
         <v>10.7</v>
       </c>
     </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>20250702</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20250702</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20250702</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20250702</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20250702</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>20250702</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>20250702</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>20250702</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>20250702</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>20250702</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>20250702</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>20250702</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>20250702</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>20250702</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20250702</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>20250702</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>20250702</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20250702</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>33.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546BD29D-3768-0946-9EAF-693DA96B83A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558BCDA7-8D4F-B848-AF85-0A19C32473DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -551,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1601,6 +1601,48 @@
         <v>33.5</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>20250702</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>20250702</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20250702</v>
+      </c>
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>33.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558BCDA7-8D4F-B848-AF85-0A19C32473DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2FC624-DA94-D04F-B4C5-89D0D267079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -551,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1643,6 +1643,59 @@
         <v>33.5</v>
       </c>
     </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>20250702</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>20250702</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>20250702</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20250702</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2FC624-DA94-D04F-B4C5-89D0D267079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EE9C18-581A-4946-8662-23854D63C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -551,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,7 +1685,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>20250702</v>
       </c>
@@ -1694,6 +1694,219 @@
       </c>
       <c r="C81" t="s">
         <v>17</v>
+      </c>
+      <c r="D81">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>20250702</v>
+      </c>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>20250702</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>20250702</v>
+      </c>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>20250702</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>20250702</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20250702</v>
+      </c>
+      <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>20250702</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20250702</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>20250702</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>20250702</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>20250702</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>20250702</v>
+      </c>
+      <c r="B93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>20250702</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>20250702</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>20250702</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96">
+        <v>27.7</v>
       </c>
     </row>
   </sheetData>

--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EE9C18-581A-4946-8662-23854D63C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B2C4AB-9B2C-494C-AC62-9FF6ECDEC41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="49">
   <si>
     <t>date</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>plate39</t>
+  </si>
+  <si>
+    <t>plate38</t>
   </si>
 </sst>
 </file>
@@ -551,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1909,6 +1912,195 @@
         <v>27.7</v>
       </c>
     </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>20250702</v>
+      </c>
+      <c r="B97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>20250702</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20250702</v>
+      </c>
+      <c r="B99" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20250702</v>
+      </c>
+      <c r="B100" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20250702</v>
+      </c>
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20250702</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>20250702</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>20250702</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>20250702</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>20250702</v>
+      </c>
+      <c r="B106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C106" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>20250702</v>
+      </c>
+      <c r="B107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>20250702</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>20250702</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>20250702</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>20250702</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>20250702</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>20250702</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>20250702</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B2C4AB-9B2C-494C-AC62-9FF6ECDEC41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098527BF-8216-334D-9205-AF153532F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>plate38</t>
+  </si>
+  <si>
+    <t>plate46</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2070,35 +2073,126 @@
       <c r="A108">
         <v>20250702</v>
       </c>
+      <c r="B108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>20250702</v>
       </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>20250702</v>
       </c>
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>20250702</v>
       </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>20250702</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>20250702</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>20250702</v>
+      </c>
+      <c r="B114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>20250702</v>
+      </c>
+      <c r="B115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>20250702</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116">
+        <v>21.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098527BF-8216-334D-9205-AF153532F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558CA9C6-08D5-9F4C-AA09-7BEEC3BEABAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>plate46</t>
+  </si>
+  <si>
+    <t>plate49</t>
+  </si>
+  <si>
+    <t>plate51</t>
+  </si>
+  <si>
+    <t>plate52</t>
   </si>
 </sst>
 </file>
@@ -557,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2195,6 +2204,163 @@
         <v>21.6</v>
       </c>
     </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>20250703</v>
+      </c>
+      <c r="B117" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>20250703</v>
+      </c>
+      <c r="B118" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>20250703</v>
+      </c>
+      <c r="B119" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>20250703</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>20250703</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558CA9C6-08D5-9F4C-AA09-7BEEC3BEABAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60A8358-36EF-3945-91DA-475D5FBA7E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="65">
   <si>
     <t>date</t>
   </si>
@@ -195,6 +195,42 @@
   </si>
   <si>
     <t>plate52</t>
+  </si>
+  <si>
+    <t>plate53</t>
+  </si>
+  <si>
+    <t>plate54</t>
+  </si>
+  <si>
+    <t>plate55</t>
+  </si>
+  <si>
+    <t>plate56</t>
+  </si>
+  <si>
+    <t>plate57</t>
+  </si>
+  <si>
+    <t>plate59</t>
+  </si>
+  <si>
+    <t>plate61</t>
+  </si>
+  <si>
+    <t>plate63</t>
+  </si>
+  <si>
+    <t>plate64</t>
+  </si>
+  <si>
+    <t>plate65</t>
+  </si>
+  <si>
+    <t>plate67</t>
+  </si>
+  <si>
+    <t>plate70</t>
   </si>
 </sst>
 </file>
@@ -568,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1375,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="D57">
-        <v>18.399999999999999</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1389,7 +1425,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>16.8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2250,113 +2286,221 @@
       <c r="A120">
         <v>20250703</v>
       </c>
+      <c r="B120" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>20250703</v>
       </c>
+      <c r="B121" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>20250703</v>
       </c>
+      <c r="B122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>20250703</v>
       </c>
+      <c r="B123" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>20250703</v>
       </c>
+      <c r="B124" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>20250703</v>
       </c>
+      <c r="B125" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>20250703</v>
       </c>
+      <c r="B126" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>20250703</v>
       </c>
+      <c r="B127" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>20250703</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>20250703</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>62</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>20250703</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>20250703</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>20250703</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>20250703</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>20250703</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>20250703</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>20250703</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>20250703</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>20250703</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>20250703</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>20250703</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>20250703</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>20250703</v>
       </c>

--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60A8358-36EF-3945-91DA-475D5FBA7E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BFAFCF-9A82-2E47-85FF-06FCF681351A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="65">
   <si>
     <t>date</t>
   </si>
@@ -605,7 +605,7 @@
   <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2454,25 +2454,70 @@
       <c r="A132">
         <v>20250703</v>
       </c>
+      <c r="B132" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>20250703</v>
       </c>
+      <c r="B133" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>20250703</v>
       </c>
+      <c r="B134" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>34.700000000000003</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>20250703</v>
       </c>
+      <c r="B135" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>20250703</v>
+      </c>
+      <c r="B136" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>32.9</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BFAFCF-9A82-2E47-85FF-06FCF681351A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610339D5-303B-6844-BA25-65D4C2F239E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="67">
   <si>
     <t>date</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>plate70</t>
+  </si>
+  <si>
+    <t>plate58</t>
+  </si>
+  <si>
+    <t>plate60</t>
   </si>
 </sst>
 </file>
@@ -604,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2524,30 +2530,84 @@
       <c r="A137">
         <v>20250703</v>
       </c>
+      <c r="B137" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>35</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>20250703</v>
       </c>
+      <c r="B138" t="s">
+        <v>65</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138">
+        <v>34.6</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>20250703</v>
       </c>
+      <c r="B139" t="s">
+        <v>58</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>33.700000000000003</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>20250703</v>
       </c>
+      <c r="B140" t="s">
+        <v>66</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>33.200000000000003</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>20250703</v>
       </c>
+      <c r="B141" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>34.299999999999997</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>20250703</v>
+      </c>
+      <c r="B142" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>33.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/temperature.xlsx
+++ b/data/temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610339D5-303B-6844-BA25-65D4C2F239E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F122A6-4324-D445-944B-56585A663DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{AD456542-BC20-0241-8701-D925B25ABE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="68">
   <si>
     <t>date</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>plate67</t>
+  </si>
+  <si>
+    <t>plate69</t>
   </si>
   <si>
     <t>plate70</t>
@@ -608,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB5B1-B63A-D349-8AF5-6EF81CABB6B8}">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2447,7 +2450,7 @@
         <v>20250703</v>
       </c>
       <c r="B131" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2545,7 +2548,7 @@
         <v>20250703</v>
       </c>
       <c r="B138" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
@@ -2573,7 +2576,7 @@
         <v>20250703</v>
       </c>
       <c r="B140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
@@ -2608,6 +2611,510 @@
       </c>
       <c r="D142">
         <v>33.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>20250703</v>
+      </c>
+      <c r="B143" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>20250703</v>
+      </c>
+      <c r="B144" t="s">
+        <v>63</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>20250703</v>
+      </c>
+      <c r="B145" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>20250703</v>
+      </c>
+      <c r="B146" t="s">
+        <v>50</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>20250703</v>
+      </c>
+      <c r="B147" t="s">
+        <v>51</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>20250703</v>
+      </c>
+      <c r="B148" t="s">
+        <v>53</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>20250703</v>
+      </c>
+      <c r="B149" t="s">
+        <v>55</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>20250703</v>
+      </c>
+      <c r="B150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>20250703</v>
+      </c>
+      <c r="B151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>20250703</v>
+      </c>
+      <c r="B152" t="s">
+        <v>59</v>
+      </c>
+      <c r="C152" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>20250703</v>
+      </c>
+      <c r="B153" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>20250703</v>
+      </c>
+      <c r="B154" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>20250703</v>
+      </c>
+      <c r="B155" t="s">
+        <v>63</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>20250703</v>
+      </c>
+      <c r="B156" t="s">
+        <v>64</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>20250703</v>
+      </c>
+      <c r="B157" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" t="s">
+        <v>23</v>
+      </c>
+      <c r="D157">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>20250703</v>
+      </c>
+      <c r="B158" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>20250703</v>
+      </c>
+      <c r="B159" t="s">
+        <v>53</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>20250703</v>
+      </c>
+      <c r="B160" t="s">
+        <v>55</v>
+      </c>
+      <c r="C160" t="s">
+        <v>23</v>
+      </c>
+      <c r="D160">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>20250703</v>
+      </c>
+      <c r="B161" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>20250703</v>
+      </c>
+      <c r="B162" t="s">
+        <v>58</v>
+      </c>
+      <c r="C162" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>20250703</v>
+      </c>
+      <c r="B163" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>20250703</v>
+      </c>
+      <c r="B164" t="s">
+        <v>60</v>
+      </c>
+      <c r="C164" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>20250703</v>
+      </c>
+      <c r="B165" t="s">
+        <v>62</v>
+      </c>
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>20250703</v>
+      </c>
+      <c r="B166" t="s">
+        <v>63</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>20250703</v>
+      </c>
+      <c r="B167" t="s">
+        <v>64</v>
+      </c>
+      <c r="C167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>20250703</v>
+      </c>
+      <c r="B168" t="s">
+        <v>50</v>
+      </c>
+      <c r="C168" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>20250703</v>
+      </c>
+      <c r="B169" t="s">
+        <v>51</v>
+      </c>
+      <c r="C169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>20250703</v>
+      </c>
+      <c r="B170" t="s">
+        <v>53</v>
+      </c>
+      <c r="C170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>20250703</v>
+      </c>
+      <c r="B171" t="s">
+        <v>55</v>
+      </c>
+      <c r="C171" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>20250703</v>
+      </c>
+      <c r="B172" t="s">
+        <v>57</v>
+      </c>
+      <c r="C172" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>20250703</v>
+      </c>
+      <c r="B173" t="s">
+        <v>58</v>
+      </c>
+      <c r="C173" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>20250703</v>
+      </c>
+      <c r="B174" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>20250703</v>
+      </c>
+      <c r="B175" t="s">
+        <v>60</v>
+      </c>
+      <c r="C175" t="s">
+        <v>29</v>
+      </c>
+      <c r="D175">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>20250703</v>
+      </c>
+      <c r="B176" t="s">
+        <v>62</v>
+      </c>
+      <c r="C176" t="s">
+        <v>29</v>
+      </c>
+      <c r="D176">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>20250703</v>
+      </c>
+      <c r="B177" t="s">
+        <v>63</v>
+      </c>
+      <c r="C177" t="s">
+        <v>29</v>
+      </c>
+      <c r="D177">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>20250703</v>
+      </c>
+      <c r="B178" t="s">
+        <v>64</v>
+      </c>
+      <c r="C178" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178">
+        <v>21.8</v>
       </c>
     </row>
   </sheetData>
